--- a/Sets-Ose_India.xlsx
+++ b/Sets-Ose_India.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209771B7-C8E2-45E6-AE86-5686C1728628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756A209-C2A4-4DC1-9C3D-509F097EFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{91160169-4669-41EB-968B-C98B54EC51CB}"/>
   </bookViews>
@@ -234,15 +234,9 @@
     <t>Elc - LV</t>
   </si>
   <si>
-    <t>PWR*</t>
-  </si>
-  <si>
     <t>RNW*</t>
   </si>
   <si>
-    <t>TRN*</t>
-  </si>
-  <si>
     <t>Transmission</t>
   </si>
   <si>
@@ -307,6 +301,12 @@
   </si>
   <si>
     <t>PWRWON*</t>
+  </si>
+  <si>
+    <t>PWR*,-PWRTRN*</t>
+  </si>
+  <si>
+    <t>TRN*,PWRTRN*</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -968,15 +968,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" t="str">
         <f>PROPER(MID(B7,4,3))</f>
@@ -985,7 +985,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F27" si="0">PROPER(MID(B8,4,3))</f>
@@ -994,7 +994,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
